--- a/MacManes_Army_Budget.xlsx
+++ b/MacManes_Army_Budget.xlsx
@@ -3897,8 +3897,8 @@
   </sheetPr>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5122,17 +5122,17 @@
         <v>0</v>
       </c>
       <c r="I36" s="90">
-        <v>59000</v>
+        <v>60000</v>
       </c>
       <c r="J36" s="90">
         <v>60000</v>
       </c>
       <c r="K36" s="90">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="L36" s="40">
         <f>SUM( $I$36:$K$36)</f>
-        <v>177000</v>
+        <v>180000</v>
       </c>
       <c r="N36" s="42" t="s">
         <v>102</v>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="I47" s="48">
         <f>SUM(I31:I41,I43:I46)</f>
-        <v>95011.986655427347</v>
+        <v>96011.986655427347</v>
       </c>
       <c r="J47" s="48">
         <f>SUM(J31:J41,J43:J46)</f>
@@ -5467,11 +5467,11 @@
       </c>
       <c r="K47" s="48">
         <f>SUM(K31:K41,K43:K46)</f>
-        <v>92382.048732405208</v>
+        <v>94382.048732405208</v>
       </c>
       <c r="L47" s="48">
         <f>SUM( $I$47:$K$47)</f>
-        <v>280979.45163790497</v>
+        <v>283979.45163790497</v>
       </c>
       <c r="M47" s="48"/>
       <c r="N47" s="53"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="I48" s="108">
         <f>SUMIF($N$10:$N$46,"Y",I10:I46)</f>
-        <v>90011.986655427347</v>
+        <v>91011.986655427347</v>
       </c>
       <c r="J48" s="108">
         <f>SUMIF($N$10:$N$46,"Y",J10:J46)</f>
@@ -5498,11 +5498,11 @@
       </c>
       <c r="K48" s="108">
         <f>SUMIF($N$10:$N$46,"Y",K10:K46)</f>
-        <v>92382.048732405208</v>
+        <v>94382.048732405208</v>
       </c>
       <c r="L48" s="108">
         <f>SUM( $I$48:$K$48)</f>
-        <v>275979.45163790497</v>
+        <v>278979.45163790497</v>
       </c>
       <c r="N48" s="109"/>
       <c r="O48" s="109"/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I49" s="40">
         <f>I4*I48</f>
-        <v>42755.693124814738</v>
+        <v>43230.693118854273</v>
       </c>
       <c r="J49" s="40">
         <f>J4*J48</f>
@@ -5527,11 +5527,11 @@
       </c>
       <c r="K49" s="40">
         <f>K4*K48</f>
-        <v>43881.472597252556</v>
+        <v>44831.472585331627</v>
       </c>
       <c r="L49" s="40">
         <f>SUM( $I$49:$K$49)</f>
-        <v>131090.23788303914</v>
+        <v>132515.23786515775</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="32" customHeight="1">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="I50" s="48">
         <f>SUM(I49+I47)</f>
-        <v>137767.67978024209</v>
+        <v>139242.67977428163</v>
       </c>
       <c r="J50" s="48">
         <f>SUM(J49+J47)</f>
@@ -5558,11 +5558,11 @@
       </c>
       <c r="K50" s="48">
         <f>SUM(K49+K47)</f>
-        <v>136263.52132965776</v>
+        <v>139213.52131773683</v>
       </c>
       <c r="L50" s="48">
         <f>SUM( $I$50:$K$50)</f>
-        <v>412069.68952094414</v>
+        <v>416494.68950306275</v>
       </c>
       <c r="M50" s="48"/>
       <c r="N50" s="53"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I53" s="48">
         <f>SUM(I52+I51+I50)</f>
-        <v>137767.67978024209</v>
+        <v>139242.67977428163</v>
       </c>
       <c r="J53" s="48">
         <f>SUM(J52+J51+J50)</f>
@@ -5630,11 +5630,11 @@
       </c>
       <c r="K53" s="48">
         <f>SUM(K52+K51+K50)</f>
-        <v>136263.52132965776</v>
+        <v>139213.52131773683</v>
       </c>
       <c r="L53" s="48">
         <f>SUM( $I$53:$K$53)</f>
-        <v>412069.68952094414</v>
+        <v>416494.68950306275</v>
       </c>
       <c r="M53" s="48"/>
       <c r="N53" s="53"/>
